--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P2006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mantequilla</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -496,7 +496,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>

--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -496,7 +496,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -566,6 +566,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>

--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -463,19 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P2001</t>
+          <t>P1001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaseosa Coca Cola 3L</t>
+          <t>Progas 10kg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -484,19 +484,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2002</t>
+          <t>P1002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galleta Soda</t>
+          <t>Primax 10kg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -505,16 +505,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P2003</t>
+          <t>P1003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cañonazo</t>
+          <t>Primax Plus 45kg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -526,19 +526,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P2004</t>
+          <t>P1004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inka Cola Personal</t>
+          <t>Valvula de gas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.3</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -547,25 +547,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P2005</t>
+          <t>P1005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Galleta Oreo</t>
+          <t>Manguera para gas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Escritorio/Data/Productos.xlsx
+++ b/Escritorio/Data/Productos.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -475,7 +475,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -566,6 +566,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>